--- a/Exp_Record_Diablito.xlsx
+++ b/Exp_Record_Diablito.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507DB815-7C3B-47B6-86FD-EBD1603F04C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="72">
   <si>
     <t>ChanQual</t>
   </si>
@@ -94,6 +100,91 @@
 Finished 5 blocks in 8min, has consumed 325cc juice total. 2.50</t>
   </si>
   <si>
+    <t>001 rf mapper, will do 4 blocks
+thinking 42 (-1,-1) 4  CMAES 3/5</t>
+  </si>
+  <si>
+    <t>002 at 1259 PM ish
+42 (-1,-1) 4 2 CMAES 3/5
+Solid psth, in Diablito we trust
+Not nothin'
+77% performance
+started at 200 cc
+Ended at 115 PM, running manifold code
+takes a while, Binxu. In case you're reading this
+that took a long time, had to relaunch VSCODE and it was faster then</t>
+  </si>
+  <si>
+    <t>003 manifold at 129 PM, (-1,-1) 4 stimulus position
+42 (-1,-1) 4 2 CMAES 3/5
+lots of stimui, coming down to 100 cc consumed
+4 minutes, on block 3, looks like...
+~140 correct trials for 3 blocks, so not great. Maybe we can hit 6?
+43 minutes in, has had 100, filled up to 200 with FM
+he's losing interest
+we did 7</t>
+  </si>
+  <si>
+    <t>Going for 34 (-2 0) 4 2 CMAES 4/5 hash
+004 at 144 PM
+doesn't sound as responsive as 42, but ok, nice RF
+ok psth
+Not nothin
+Performance sucks, 44%
+Finished 1.18hr, started running manifold code
+75s to generate first part of manifold</t>
+  </si>
+  <si>
+    <t>Started selectivity basic 2.17PM
+34 (-2 0) 4 2 CMAES 4/5 hash
+60% behav performance, completed 10 blocks
+Rf mapper
+rf mapper analysis
+biggan
+manifold
+trying manifold code, started at 11:09 AM, and done by...11:13, so 4 minutes
+Running manifold: the # of correct trials for one block is...44. Takes one minute with perfect performance. Oy vey</t>
+  </si>
+  <si>
+    <t>Rf mapper 001 at 1133 AM
+started water at 200 cc
+looks like 64 (-1,-1) 6 2 might be good
+completed</t>
+  </si>
+  <si>
+    <t>003 at 1142 AM
+64 (-1,-1) 6 2 CMAES MU 4/5
+Eh, not much happening...hey now
+I don't know, Giordano, I think the canvas is too big...too much happening for the optimizer to get a decent shot
+Fixation getting shoddy, 19 min experiment
+finished, that was about 20 minutes. Shallow climb for BigGAN, but we get what we get and we don't get upset</t>
+  </si>
+  <si>
+    <t>Manifold
+64 (-1,-1) 6 2 CMAES MU 4/5
+172 images
+1212 PM Has had 100 cc water, filled up to 200 with FM
+3 blocks completed, 5 minutes in, 75% performance
+completed in 10 min</t>
+  </si>
+  <si>
+    <t>Maybe 50, (0,0) 4 deg
+005 biggan
+50 (0 0) 4 1 CMAES 5/5 hash
+Great increase, but everything getting quieter?
+he's slowing down
+will finish after manifold
+manifold code started at 1236 PM</t>
+  </si>
+  <si>
+    <t>006 at 1239 PM
+manifold for
+50 (0 0) 4 1 CMAES 5/5 hash
+perf at 64%…
+upping reward to 75 ms
+12 minutes in, 6 blocks, only ~20 cc left</t>
+  </si>
+  <si>
     <t>Diablito-03122024-001</t>
   </si>
   <si>
@@ -109,6 +200,36 @@
     <t>Diablito-03122024-005</t>
   </si>
   <si>
+    <t>Diablito-11122024-001</t>
+  </si>
+  <si>
+    <t>Diablito-11122024-002</t>
+  </si>
+  <si>
+    <t>Diablito-11122024-003</t>
+  </si>
+  <si>
+    <t>Diablito-11122024-004</t>
+  </si>
+  <si>
+    <t>Diablito-11122024-005</t>
+  </si>
+  <si>
+    <t>Diablito-12122024-001</t>
+  </si>
+  <si>
+    <t>Diablito-12122024-003</t>
+  </si>
+  <si>
+    <t>Diablito-12122024-004</t>
+  </si>
+  <si>
+    <t>Diablito-12122024-005</t>
+  </si>
+  <si>
+    <t>Diablito-12122024-006</t>
+  </si>
+  <si>
     <t>241203_133352_Diablito_rfMapper_basic</t>
   </si>
   <si>
@@ -124,6 +245,36 @@
     <t>241203_143927_Diablito_selectivity_basic</t>
   </si>
   <si>
+    <t>241211_125148_Diablito_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>241211_125829_Diablito_generate_BigGAN</t>
+  </si>
+  <si>
+    <t>241211_132910_Diablito_selectivity_basic</t>
+  </si>
+  <si>
+    <t>241211_134400_Diablito_generate_BigGAN</t>
+  </si>
+  <si>
+    <t>241211_141636_Diablito_selectivity_basic</t>
+  </si>
+  <si>
+    <t>241212_113243_Diablito_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>241212_114145_Diablito_generate_BigGAN</t>
+  </si>
+  <si>
+    <t>241212_120703_Diablito_selectivity_basic</t>
+  </si>
+  <si>
+    <t>241212_121815_Diablito_generate_BigGAN</t>
+  </si>
+  <si>
+    <t>241212_123905_Diablito_selectivity_basic</t>
+  </si>
+  <si>
     <t>N:\Stimuli\RFs\2024\2024-06-03-RF-Diablito-01</t>
   </si>
   <si>
@@ -137,13 +288,37 @@
   </si>
   <si>
     <t>N:\Stimuli\2023_selectivity_imagenet\imagenet_selectivity_160_clusters</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\Evolutions\2024\2024-12-11-Ev-Diablito-01\2024-12-11-12-59-09</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\Evolutions\2024\2024-12-11-Ev-Diablito-01\2024-12-11-12-59-09\Hess_imgs</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\Evolutions\2024\2024-12-11-Ev-Diablito-02\2024-12-11-13-44-38</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\Evolutions\2024\2024-12-11-Ev-Diablito-02\2024-12-11-13-44-38\Hess_imgs</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\Evolutions\2024\2024-12-12-Ev-Diablito-01\2024-12-12-11-42-10</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\Evolutions\2024\2024-12-12-Ev-Diablito-01\2024-12-12-11-42-10\Hess_imgs</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\Evolutions\2024\2024-12-12-Ev-Diablito-02\2024-12-12-12-18-47</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\Evolutions\2024\2024-12-12-Ev-Diablito-02\2024-12-12-12-18-47\Hess_imgs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,13 +381,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -250,7 +433,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -284,6 +467,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -318,9 +502,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -493,14 +678,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="42.140625" customWidth="1"/>
+    <col min="7" max="7" width="45.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -535,32 +727,35 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>11</v>
       </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="H3">
         <v>56</v>
@@ -569,21 +764,24 @@
         <v>4</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>12</v>
       </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
       <c r="E4" t="s">
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="H4">
         <v>56</v>
@@ -592,24 +790,24 @@
         <v>4</v>
       </c>
       <c r="K4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="K5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>13</v>
       </c>
@@ -617,13 +815,249 @@
         <v>18</v>
       </c>
       <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8">
+        <v>42</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9">
+        <v>42</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10">
+        <v>34</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="K10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
         <v>23</v>
       </c>
-      <c r="G6" t="s">
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11">
+        <v>34</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="K11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13">
+        <v>64</v>
+      </c>
+      <c r="J13">
+        <v>6</v>
+      </c>
+      <c r="K13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14">
+        <v>64</v>
+      </c>
+      <c r="J14">
+        <v>6</v>
+      </c>
+      <c r="K14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15">
+        <v>50</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
         <v>28</v>
       </c>
-      <c r="K6" t="s">
-        <v>33</v>
+      <c r="F16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16">
+        <v>50</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+      <c r="K16" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
